--- a/2015-2016/clases/informatica_basica/a/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_basica/a/control_asistencia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
   <si>
     <t>AGUACONDO  CORDOVA SHIRLEY KATHERINE</t>
   </si>
@@ -54,9 +54,6 @@
     <t>MALDONADO GOMEZ GóMEZ MIGUEL ANGEL</t>
   </si>
   <si>
-    <t>MATUTE MÁRQUEZ MATUTEM MARQUEZ JORGE ANDRÉS</t>
-  </si>
-  <si>
     <t>MEDINA  ROMERO  ALEXANDRA CELENA</t>
   </si>
   <si>
@@ -156,15 +153,9 @@
     <t>miguelangel-747@hotmail.com</t>
   </si>
   <si>
-    <t>aruedaP_96@hotmail.com</t>
-  </si>
-  <si>
     <t>yulic_96@hotmail.com</t>
   </si>
   <si>
-    <t>jp_tiitaas@hotmail.com</t>
-  </si>
-  <si>
     <t>carloscordovahernandez@gmail.com</t>
   </si>
   <si>
@@ -195,19 +186,40 @@
     <t>majitoo_17@hotmail.com</t>
   </si>
   <si>
-    <t>madelumurillo@hotmail.com</t>
-  </si>
-  <si>
     <t>lizti111895_@hotmail.com</t>
   </si>
   <si>
     <t>Control Asistencias</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>jorgematute96@outlook.com</t>
+  </si>
+  <si>
+    <t>MATUTE MÁRQUEZ JORGE ANDRÉS</t>
+  </si>
+  <si>
+    <t>jp_tiita95@hotmail.com</t>
+  </si>
+  <si>
+    <t>madelynmurillo@hotmail.com</t>
+  </si>
+  <si>
+    <t>aruedaP_96@outlook.com</t>
+  </si>
+  <si>
+    <t>Leon Torres Jennifer Katherine</t>
+  </si>
+  <si>
+    <t>jenniferlion@hotmail.es</t>
+  </si>
+  <si>
+    <t>Tarambis Alexander Morales Ramiro</t>
+  </si>
+  <si>
+    <t>alexander.tarambis@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -277,7 +289,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -288,6 +300,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -591,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X32"/>
+  <dimension ref="B1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -608,7 +625,7 @@
   <sheetData>
     <row r="1" spans="2:24">
       <c r="E1" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -632,10 +649,10 @@
     </row>
     <row r="2" spans="2:24" ht="23.25">
       <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -706,13 +723,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:24">
@@ -723,13 +743,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:24">
@@ -740,13 +763,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:24">
@@ -757,13 +783,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:24">
@@ -774,13 +803,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:24">
@@ -791,13 +823,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:24">
@@ -808,13 +843,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:24">
@@ -825,13 +863,16 @@
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:24">
@@ -842,13 +883,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:24">
@@ -859,13 +903,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:24">
@@ -876,13 +923,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:24">
@@ -893,13 +940,16 @@
         <v>11</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="15" customHeight="1">
@@ -907,14 +957,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:24">
@@ -922,267 +977,373 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
+        <v>58</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24">
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
+        <v>58</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26">
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
+        <v>58</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27">
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
+        <v>58</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28">
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
+        <v>58</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29">
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
+        <v>58</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30">
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
+        <v>58</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31">
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
+        <v>58</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1206,22 +1367,25 @@
     <hyperlink ref="D14" r:id="rId14"/>
     <hyperlink ref="D28" r:id="rId15"/>
     <hyperlink ref="D9" r:id="rId16"/>
-    <hyperlink ref="D22" r:id="rId17"/>
-    <hyperlink ref="D8" r:id="rId18"/>
-    <hyperlink ref="D32" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D26" r:id="rId21"/>
-    <hyperlink ref="D4" r:id="rId22"/>
-    <hyperlink ref="D30" r:id="rId23"/>
-    <hyperlink ref="D23" r:id="rId24"/>
-    <hyperlink ref="D12" r:id="rId25"/>
-    <hyperlink ref="D7" r:id="rId26"/>
-    <hyperlink ref="D10" r:id="rId27"/>
-    <hyperlink ref="D18" r:id="rId28"/>
-    <hyperlink ref="D19" r:id="rId29"/>
+    <hyperlink ref="D8" r:id="rId17"/>
+    <hyperlink ref="D32" r:id="rId18"/>
+    <hyperlink ref="D21" r:id="rId19"/>
+    <hyperlink ref="D26" r:id="rId20"/>
+    <hyperlink ref="D4" r:id="rId21"/>
+    <hyperlink ref="D30" r:id="rId22"/>
+    <hyperlink ref="D23" r:id="rId23"/>
+    <hyperlink ref="D12" r:id="rId24"/>
+    <hyperlink ref="D7" r:id="rId25"/>
+    <hyperlink ref="D10" r:id="rId26"/>
+    <hyperlink ref="D18" r:id="rId27"/>
+    <hyperlink ref="D19" r:id="rId28"/>
+    <hyperlink ref="D15" r:id="rId29"/>
+    <hyperlink ref="D22" r:id="rId30"/>
+    <hyperlink ref="D33" r:id="rId31"/>
+    <hyperlink ref="D34" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId33"/>
 </worksheet>
 </file>
 

--- a/2015-2016/clases/informatica_basica/a/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_basica/a/control_asistencia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="68">
   <si>
     <t>AGUACONDO  CORDOVA SHIRLEY KATHERINE</t>
   </si>
@@ -297,14 +297,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -624,28 +624,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24">
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
     </row>
     <row r="2" spans="2:24" ht="23.25">
       <c r="C2" s="3" t="s">
@@ -734,6 +734,9 @@
       <c r="G3" t="s">
         <v>58</v>
       </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="2:24">
       <c r="B4">
@@ -754,6 +757,9 @@
       <c r="G4" t="s">
         <v>58</v>
       </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="2:24">
       <c r="B5">
@@ -774,6 +780,9 @@
       <c r="G5" t="s">
         <v>58</v>
       </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="2:24">
       <c r="B6">
@@ -794,6 +803,9 @@
       <c r="G6" t="s">
         <v>58</v>
       </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="2:24">
       <c r="B7">
@@ -814,6 +826,9 @@
       <c r="G7" t="s">
         <v>58</v>
       </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="2:24">
       <c r="B8">
@@ -834,6 +849,9 @@
       <c r="G8" t="s">
         <v>58</v>
       </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="2:24">
       <c r="B9">
@@ -854,6 +872,9 @@
       <c r="G9" t="s">
         <v>58</v>
       </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="2:24">
       <c r="B10">
@@ -874,6 +895,9 @@
       <c r="G10" t="s">
         <v>58</v>
       </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="2:24">
       <c r="B11">
@@ -894,6 +918,9 @@
       <c r="G11" t="s">
         <v>58</v>
       </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="2:24">
       <c r="B12">
@@ -914,6 +941,9 @@
       <c r="G12" t="s">
         <v>58</v>
       </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="2:24">
       <c r="B13">
@@ -931,6 +961,9 @@
       <c r="F13" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="2:24">
       <c r="B14">
@@ -951,6 +984,9 @@
       <c r="G14" t="s">
         <v>58</v>
       </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="2:24" ht="15" customHeight="1">
       <c r="B15">
@@ -968,7 +1004,10 @@
       <c r="F15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -991,8 +1030,11 @@
       <c r="G16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17">
         <v>15</v>
       </c>
@@ -1008,8 +1050,11 @@
       <c r="F17" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18">
         <v>16</v>
       </c>
@@ -1028,8 +1073,11 @@
       <c r="G18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19">
         <v>17</v>
       </c>
@@ -1048,8 +1096,11 @@
       <c r="G19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20">
         <v>18</v>
       </c>
@@ -1068,8 +1119,11 @@
       <c r="G20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21">
         <v>19</v>
       </c>
@@ -1088,8 +1142,11 @@
       <c r="G21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22">
         <v>20</v>
       </c>
@@ -1108,8 +1165,11 @@
       <c r="G22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23">
         <v>21</v>
       </c>
@@ -1128,8 +1188,11 @@
       <c r="G23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="H23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24">
         <v>22</v>
       </c>
@@ -1148,8 +1211,11 @@
       <c r="G24" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="H24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25">
         <v>23</v>
       </c>
@@ -1168,8 +1234,11 @@
       <c r="G25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="H25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26">
         <v>24</v>
       </c>
@@ -1182,14 +1251,17 @@
       <c r="E26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="H26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27">
         <v>25</v>
       </c>
@@ -1202,14 +1274,17 @@
       <c r="E27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="H27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28">
         <v>26</v>
       </c>
@@ -1222,14 +1297,17 @@
       <c r="E28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G28" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="2:7">
+      <c r="H28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29">
         <v>27</v>
       </c>
@@ -1242,14 +1320,17 @@
       <c r="E29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="H29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30">
         <v>28</v>
       </c>
@@ -1262,14 +1343,17 @@
       <c r="E30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G30" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="H30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
       <c r="B31">
         <v>29</v>
       </c>
@@ -1282,14 +1366,17 @@
       <c r="E31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G31" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="2:7">
+      <c r="H31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
       <c r="B32">
         <v>30</v>
       </c>
@@ -1302,47 +1389,56 @@
       <c r="E32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G32" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="H32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33">
         <v>31</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="E33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G33" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="H33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34">
         <v>32</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" t="s">
         <v>58</v>
       </c>
     </row>

--- a/2015-2016/clases/informatica_basica/a/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_basica/a/control_asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="68">
   <si>
     <t>Control Asistencias</t>
   </si>
@@ -254,12 +254,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -272,6 +266,12 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -328,25 +328,25 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -354,16 +354,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -374,7 +366,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
@@ -387,8 +379,8 @@
   </sheetPr>
   <dimension ref="B1:X34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -519,6 +511,9 @@
       <c r="I3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -545,6 +540,9 @@
       <c r="I4" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
@@ -571,6 +569,9 @@
       <c r="I5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -597,6 +598,9 @@
       <c r="I6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -621,6 +625,9 @@
         <v>5</v>
       </c>
       <c r="I7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -649,6 +656,9 @@
       <c r="I8" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J8" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
@@ -675,6 +685,9 @@
       <c r="I9" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J9" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
@@ -701,6 +714,9 @@
       <c r="I10" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
@@ -727,6 +743,9 @@
       <c r="I11" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
@@ -753,6 +772,9 @@
       <c r="I12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J12" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -776,6 +798,9 @@
       <c r="I13" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J13" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -802,6 +827,9 @@
       <c r="I14" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J14" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
@@ -819,13 +847,16 @@
       <c r="F15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="G15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -854,6 +885,9 @@
       <c r="I16" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J16" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
@@ -877,6 +911,9 @@
       <c r="I17" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J17" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
@@ -903,6 +940,9 @@
       <c r="I18" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J18" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
@@ -929,6 +969,9 @@
       <c r="I19" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J19" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
@@ -955,6 +998,9 @@
       <c r="I20" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J20" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
@@ -981,6 +1027,9 @@
       <c r="I21" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J21" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
@@ -1007,6 +1056,9 @@
       <c r="I22" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J22" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="n">
@@ -1033,6 +1085,9 @@
       <c r="I23" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J23" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="n">
@@ -1059,6 +1114,9 @@
       <c r="I24" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J24" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="n">
@@ -1085,6 +1143,9 @@
       <c r="I25" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="J25" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="n">
@@ -1099,7 +1160,7 @@
       <c r="E26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="0" t="s">
@@ -1109,6 +1170,9 @@
         <v>5</v>
       </c>
       <c r="I26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1125,7 +1189,7 @@
       <c r="E27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="0" t="s">
@@ -1135,6 +1199,9 @@
         <v>5</v>
       </c>
       <c r="I27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1151,7 +1218,7 @@
       <c r="E28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="0" t="s">
@@ -1161,6 +1228,9 @@
         <v>5</v>
       </c>
       <c r="I28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1177,7 +1247,7 @@
       <c r="E29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="0" t="s">
@@ -1187,6 +1257,9 @@
         <v>5</v>
       </c>
       <c r="I29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1203,7 +1276,7 @@
       <c r="E30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="0" t="s">
@@ -1213,6 +1286,9 @@
         <v>5</v>
       </c>
       <c r="I30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1229,7 +1305,7 @@
       <c r="E31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="0" t="s">
@@ -1239,6 +1315,9 @@
         <v>5</v>
       </c>
       <c r="I31" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1255,7 +1334,7 @@
       <c r="E32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="0" t="s">
@@ -1265,6 +1344,9 @@
         <v>5</v>
       </c>
       <c r="I32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1272,16 +1354,16 @@
       <c r="B33" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="E33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="0" t="s">
@@ -1291,6 +1373,9 @@
         <v>5</v>
       </c>
       <c r="I33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1298,13 +1383,13 @@
       <c r="B34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G34" s="0" t="s">

--- a/2015-2016/clases/informatica_basica/a/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_basica/a/control_asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="68">
   <si>
     <t>Control Asistencias</t>
   </si>
@@ -366,7 +366,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
@@ -379,8 +379,8 @@
   </sheetPr>
   <dimension ref="B1:X34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -514,6 +514,12 @@
       <c r="J3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -543,6 +549,12 @@
       <c r="J4" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
@@ -572,6 +584,12 @@
       <c r="J5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -601,6 +619,12 @@
       <c r="J6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -628,6 +652,12 @@
         <v>5</v>
       </c>
       <c r="J7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -659,6 +689,12 @@
       <c r="J8" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
@@ -688,6 +724,12 @@
       <c r="J9" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
@@ -717,6 +759,12 @@
       <c r="J10" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
@@ -746,6 +794,12 @@
       <c r="J11" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
@@ -775,6 +829,12 @@
       <c r="J12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -801,6 +861,12 @@
       <c r="J13" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -830,6 +896,12 @@
       <c r="J14" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
@@ -859,6 +931,12 @@
       <c r="J15" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
@@ -888,6 +966,12 @@
       <c r="J16" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
@@ -914,6 +998,12 @@
       <c r="J17" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
@@ -943,6 +1033,12 @@
       <c r="J18" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
@@ -972,6 +1068,12 @@
       <c r="J19" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
@@ -1001,6 +1103,12 @@
       <c r="J20" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
@@ -1030,6 +1138,12 @@
       <c r="J21" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
@@ -1059,6 +1173,12 @@
       <c r="J22" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="n">
@@ -1088,6 +1208,12 @@
       <c r="J23" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="n">
@@ -1117,6 +1243,12 @@
       <c r="J24" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="n">
@@ -1146,6 +1278,12 @@
       <c r="J25" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="n">
@@ -1175,6 +1313,12 @@
       <c r="J26" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="n">
@@ -1204,6 +1348,12 @@
       <c r="J27" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
@@ -1233,6 +1383,12 @@
       <c r="J28" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
@@ -1262,6 +1418,12 @@
       <c r="J29" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
@@ -1291,6 +1453,12 @@
       <c r="J30" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
@@ -1320,6 +1488,12 @@
       <c r="J31" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K31" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="n">
@@ -1349,6 +1523,12 @@
       <c r="J32" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="n">
@@ -1378,6 +1558,12 @@
       <c r="J33" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="K33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="n">
@@ -1396,6 +1582,12 @@
         <v>5</v>
       </c>
       <c r="H34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="0" t="s">
         <v>5</v>
       </c>
     </row>

--- a/2015-2016/clases/informatica_basica/a/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_basica/a/control_asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="68">
   <si>
     <t>Control Asistencias</t>
   </si>
@@ -366,7 +366,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
@@ -379,18 +379,18 @@
   </sheetPr>
   <dimension ref="B1:X34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N34" activeCellId="0" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.71255060728745"/>
-    <col collapsed="false" hidden="false" max="24" min="8" style="0" width="3"/>
+    <col collapsed="false" hidden="true" max="4" min="4" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3"/>
+    <col collapsed="false" hidden="true" max="10" min="6" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="24" min="11" style="0" width="3"/>
     <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
@@ -520,6 +520,12 @@
       <c r="L3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -555,6 +561,12 @@
       <c r="L4" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
@@ -590,6 +602,9 @@
       <c r="L5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -625,6 +640,12 @@
       <c r="L6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -658,6 +679,12 @@
         <v>5</v>
       </c>
       <c r="L7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -695,6 +722,12 @@
       <c r="L8" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
@@ -730,6 +763,12 @@
       <c r="L9" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
@@ -765,6 +804,12 @@
       <c r="L10" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
@@ -800,6 +845,12 @@
       <c r="L11" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
@@ -835,6 +886,12 @@
       <c r="L12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -867,6 +924,9 @@
       <c r="L13" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="N13" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -902,6 +962,12 @@
       <c r="L14" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
@@ -937,6 +1003,12 @@
       <c r="L15" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
@@ -972,6 +1044,12 @@
       <c r="L16" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
@@ -1004,6 +1082,12 @@
       <c r="L17" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
@@ -1039,6 +1123,12 @@
       <c r="L18" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
@@ -1074,6 +1164,12 @@
       <c r="L19" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
@@ -1109,6 +1205,12 @@
       <c r="L20" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
@@ -1144,6 +1246,12 @@
       <c r="L21" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
@@ -1179,6 +1287,12 @@
       <c r="L22" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="n">
@@ -1214,6 +1328,12 @@
       <c r="L23" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="n">
@@ -1249,6 +1369,9 @@
       <c r="L24" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M24" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="n">
@@ -1284,6 +1407,12 @@
       <c r="L25" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="n">
@@ -1319,6 +1448,12 @@
       <c r="L26" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="n">
@@ -1354,6 +1489,12 @@
       <c r="L27" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
@@ -1389,6 +1530,12 @@
       <c r="L28" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
@@ -1424,6 +1571,12 @@
       <c r="L29" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
@@ -1459,6 +1612,12 @@
       <c r="L30" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
@@ -1494,6 +1653,12 @@
       <c r="L31" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M31" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="n">
@@ -1529,6 +1694,12 @@
       <c r="L32" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="n">
@@ -1564,6 +1735,12 @@
       <c r="L33" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="n">
@@ -1588,6 +1765,9 @@
         <v>5</v>
       </c>
       <c r="L34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="0" t="s">
         <v>5</v>
       </c>
     </row>

--- a/2015-2016/clases/informatica_basica/a/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_basica/a/control_asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="68">
   <si>
     <t>Control Asistencias</t>
   </si>
@@ -366,7 +366,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="21" builtinId="54" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
@@ -379,15 +379,15 @@
   </sheetPr>
   <dimension ref="B1:X34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N34" activeCellId="0" sqref="N34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5748987854251"/>
-    <col collapsed="false" hidden="true" max="4" min="4" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3"/>
     <col collapsed="false" hidden="true" max="10" min="6" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="24" min="11" style="0" width="3"/>
@@ -526,6 +526,9 @@
       <c r="N3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -567,6 +570,9 @@
       <c r="N4" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
@@ -605,6 +611,9 @@
       <c r="M5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -646,6 +655,9 @@
       <c r="N6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -685,6 +697,9 @@
         <v>5</v>
       </c>
       <c r="N7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -769,6 +784,9 @@
       <c r="N9" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O9" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
@@ -810,6 +828,9 @@
       <c r="N10" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
@@ -851,6 +872,9 @@
       <c r="N11" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
@@ -892,6 +916,9 @@
       <c r="N12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O12" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -968,6 +995,9 @@
       <c r="N14" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O14" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
@@ -1009,6 +1039,9 @@
       <c r="N15" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O15" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
@@ -1050,6 +1083,9 @@
       <c r="N16" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O16" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
@@ -1088,6 +1124,9 @@
       <c r="N17" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O17" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
@@ -1129,6 +1168,9 @@
       <c r="N18" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O18" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
@@ -1170,6 +1212,9 @@
       <c r="N19" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O19" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
@@ -1211,6 +1256,9 @@
       <c r="N20" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O20" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
@@ -1252,6 +1300,9 @@
       <c r="N21" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O21" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
@@ -1293,6 +1344,9 @@
       <c r="N22" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O22" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="n">
@@ -1334,6 +1388,9 @@
       <c r="N23" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O23" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="n">
@@ -1372,6 +1429,9 @@
       <c r="M24" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O24" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="n">
@@ -1413,6 +1473,9 @@
       <c r="N25" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O25" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="n">
@@ -1454,6 +1517,9 @@
       <c r="N26" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O26" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="n">
@@ -1495,6 +1561,9 @@
       <c r="N27" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O27" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
@@ -1536,6 +1605,9 @@
       <c r="N28" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O28" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
@@ -1577,6 +1649,9 @@
       <c r="N29" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O29" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
@@ -1618,6 +1693,9 @@
       <c r="N30" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O30" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
@@ -1659,6 +1737,9 @@
       <c r="N31" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O31" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="n">
@@ -1700,6 +1781,9 @@
       <c r="N32" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O32" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="n">
@@ -1741,6 +1825,9 @@
       <c r="N33" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O33" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="n">
@@ -1768,6 +1855,9 @@
         <v>5</v>
       </c>
       <c r="N34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" s="0" t="s">
         <v>5</v>
       </c>
     </row>

--- a/2015-2016/clases/informatica_basica/a/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_basica/a/control_asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="68">
   <si>
     <t>Control Asistencias</t>
   </si>
@@ -254,12 +254,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -272,6 +266,12 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -328,7 +328,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -338,15 +338,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -354,7 +354,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,7 +370,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
@@ -383,8 +383,8 @@
   </sheetPr>
   <dimension ref="B1:X34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O14" activeCellId="0" sqref="O14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P35" activeCellId="0" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -533,6 +533,9 @@
       <c r="O3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -577,6 +580,9 @@
       <c r="O4" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
@@ -618,6 +624,9 @@
       <c r="O5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -662,6 +671,9 @@
       <c r="O6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -704,6 +716,9 @@
         <v>5</v>
       </c>
       <c r="O7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -750,6 +765,9 @@
       <c r="O8" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P8" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
@@ -794,6 +812,9 @@
       <c r="O9" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P9" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
@@ -838,6 +859,9 @@
       <c r="O10" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
@@ -882,6 +906,9 @@
       <c r="O11" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
@@ -926,6 +953,9 @@
       <c r="O12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P12" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -964,6 +994,9 @@
       <c r="O13" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P13" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -1008,6 +1041,9 @@
       <c r="O14" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P14" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
@@ -1052,6 +1088,9 @@
       <c r="O15" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P15" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
@@ -1096,6 +1135,9 @@
       <c r="O16" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P16" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
@@ -1137,6 +1179,9 @@
       <c r="O17" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P17" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
@@ -1181,6 +1226,9 @@
       <c r="O18" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P18" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
@@ -1225,6 +1273,9 @@
       <c r="O19" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P19" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
@@ -1269,6 +1320,9 @@
       <c r="O20" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P20" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
@@ -1313,6 +1367,9 @@
       <c r="O21" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P21" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
@@ -1357,6 +1414,9 @@
       <c r="O22" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P22" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="n">
@@ -1401,6 +1461,9 @@
       <c r="O23" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P23" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="n">
@@ -1442,6 +1505,9 @@
       <c r="O24" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P24" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="n">
@@ -1486,6 +1552,9 @@
       <c r="O25" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P25" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="n">
@@ -1530,6 +1599,9 @@
       <c r="O26" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P26" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="n">
@@ -1574,6 +1646,9 @@
       <c r="O27" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P27" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
@@ -1618,6 +1693,9 @@
       <c r="O28" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P28" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
@@ -1662,6 +1740,9 @@
       <c r="O29" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P29" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
@@ -1706,6 +1787,9 @@
       <c r="O30" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P30" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
@@ -1750,6 +1834,9 @@
       <c r="O31" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P31" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="n">
@@ -1794,6 +1881,9 @@
       <c r="O32" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P32" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="n">
@@ -1838,6 +1928,9 @@
       <c r="O33" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="P33" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="n">
@@ -1868,6 +1961,9 @@
         <v>5</v>
       </c>
       <c r="O34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="0" t="s">
         <v>5</v>
       </c>
     </row>

--- a/2015-2016/clases/informatica_basica/a/control_asistencia.xlsx
+++ b/2015-2016/clases/informatica_basica/a/control_asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="68">
   <si>
     <t>Control Asistencias</t>
   </si>
@@ -370,7 +370,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
@@ -383,8 +383,8 @@
   </sheetPr>
   <dimension ref="B1:X34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P35" activeCellId="0" sqref="P35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q14" activeCellId="0" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,6 +536,9 @@
       <c r="P3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -583,6 +586,9 @@
       <c r="P4" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
@@ -627,6 +633,9 @@
       <c r="P5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -674,6 +683,9 @@
       <c r="P6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -719,6 +731,9 @@
         <v>5</v>
       </c>
       <c r="P7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -768,6 +783,9 @@
       <c r="P8" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q8" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
@@ -815,6 +833,9 @@
       <c r="P9" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q9" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
@@ -862,6 +883,9 @@
       <c r="P10" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
@@ -909,6 +933,9 @@
       <c r="P11" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
@@ -956,6 +983,9 @@
       <c r="P12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q12" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -997,6 +1027,9 @@
       <c r="P13" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q13" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -1044,6 +1077,9 @@
       <c r="P14" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q14" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
@@ -1091,6 +1127,9 @@
       <c r="P15" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q15" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
@@ -1138,6 +1177,9 @@
       <c r="P16" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q16" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
@@ -1182,6 +1224,9 @@
       <c r="P17" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q17" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
@@ -1229,6 +1274,9 @@
       <c r="P18" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q18" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
@@ -1276,6 +1324,9 @@
       <c r="P19" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q19" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
@@ -1323,6 +1374,9 @@
       <c r="P20" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q20" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
@@ -1370,6 +1424,9 @@
       <c r="P21" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q21" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
@@ -1417,6 +1474,9 @@
       <c r="P22" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q22" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="n">
@@ -1464,6 +1524,9 @@
       <c r="P23" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q23" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="n">
@@ -1508,6 +1571,9 @@
       <c r="P24" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q24" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="n">
@@ -1555,6 +1621,9 @@
       <c r="P25" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q25" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="n">
@@ -1602,6 +1671,9 @@
       <c r="P26" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q26" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="n">
@@ -1649,6 +1721,9 @@
       <c r="P27" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q27" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
@@ -1696,6 +1771,9 @@
       <c r="P28" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q28" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
@@ -1743,6 +1821,9 @@
       <c r="P29" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q29" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
@@ -1790,6 +1871,9 @@
       <c r="P30" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q30" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
@@ -1837,6 +1921,9 @@
       <c r="P31" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q31" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="n">
@@ -1884,6 +1971,9 @@
       <c r="P32" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q32" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="n">
@@ -1931,6 +2021,9 @@
       <c r="P33" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Q33" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="n">
@@ -1964,6 +2057,9 @@
         <v>5</v>
       </c>
       <c r="P34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="0" t="s">
         <v>5</v>
       </c>
     </row>
